--- a/General/Electra Parts List.xlsx
+++ b/General/Electra Parts List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22290" windowHeight="12788"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22290" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="213">
   <si>
     <t>Number</t>
   </si>
@@ -483,12 +483,6 @@
     <t>Nose Gear plate</t>
   </si>
   <si>
-    <t>Head T</t>
-  </si>
-  <si>
-    <t>Bed T</t>
-  </si>
-  <si>
     <t>FUZCTRREAR</t>
   </si>
   <si>
@@ -553,6 +547,114 @@
   </si>
   <si>
     <t>Battery Access Cover</t>
+  </si>
+  <si>
+    <t>STL File</t>
+  </si>
+  <si>
+    <t>Cura File</t>
+  </si>
+  <si>
+    <t>ELEVP001.stl</t>
+  </si>
+  <si>
+    <t>ELEVP002.stl</t>
+  </si>
+  <si>
+    <t>ELEVS001.stl</t>
+  </si>
+  <si>
+    <t>ELEVS002.stl</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>% Published</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Zigzag</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Parts are not dropped fully onto bed. But are a few millimeters above, with supports underneath. This is done to stop curling without using raft.</t>
+  </si>
+  <si>
+    <t>Adhesion</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Brim</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Overhang Deg</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Temperature degC</t>
+  </si>
+  <si>
+    <t>ElevatorsA.3mf</t>
+  </si>
+  <si>
+    <t>HORIZP001.stl</t>
+  </si>
+  <si>
+    <t>HORIZP002.stl</t>
+  </si>
+  <si>
+    <t>HORIZS001.stl</t>
+  </si>
+  <si>
+    <t>HORIZS002.stl</t>
+  </si>
+  <si>
+    <t>HorizStabsB.3mf</t>
+  </si>
+  <si>
+    <t>NOSELIGHTS</t>
+  </si>
+  <si>
+    <t>Nose Lights Bracket</t>
+  </si>
+  <si>
+    <t>Pic File 1</t>
+  </si>
+  <si>
+    <t>Pic File 2</t>
   </si>
 </sst>
 </file>
@@ -576,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,8 +715,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -717,11 +825,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -769,6 +914,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,126 +1400,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:R94"/>
+  <dimension ref="A3:AA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.9296875" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" ht="21" customHeight="1"/>
-    <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:27" ht="21" customHeight="1"/>
+    <row r="4" spans="1:27" ht="21" customHeight="1">
+      <c r="A4" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="44"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="28">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="E5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="U5" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="28">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
-        <v>200</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="31">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
+        <v>200</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32">
-        <v>200</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="31">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -1375,22 +1596,24 @@
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
-      <c r="P7" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="33"/>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -1406,22 +1629,26 @@
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
-      <c r="P8" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -1437,22 +1664,26 @@
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="P9" s="32"/>
+      <c r="Q9" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -1468,22 +1699,26 @@
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -1499,22 +1734,26 @@
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="P11" s="32"/>
+      <c r="Q11" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -1530,22 +1769,26 @@
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="P12" s="32"/>
+      <c r="Q12" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -1561,22 +1804,26 @@
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -1592,22 +1839,26 @@
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="P14" s="32"/>
+      <c r="Q14" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -1623,22 +1874,26 @@
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15" s="32"/>
+      <c r="Q15" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -1654,22 +1909,26 @@
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -1685,22 +1944,26 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -1716,22 +1979,26 @@
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -1747,22 +2014,26 @@
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1778,22 +2049,26 @@
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20" s="32"/>
+      <c r="Q20" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -1809,22 +2084,26 @@
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21" s="32"/>
+      <c r="Q21" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -1840,22 +2119,26 @@
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -1871,22 +2154,26 @@
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -1902,22 +2189,26 @@
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -1933,22 +2224,26 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -1964,22 +2259,26 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -1995,20 +2294,26 @@
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="33"/>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
@@ -2024,20 +2329,24 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
-      <c r="P28" s="33"/>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -2053,20 +2362,24 @@
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
-      <c r="P29" s="33"/>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="P29" s="32"/>
+      <c r="Q29" s="33"/>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2082,111 +2395,127 @@
       <c r="M30" s="32"/>
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
-      <c r="P30" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="34">
+      <c r="P30" s="32"/>
+      <c r="Q30" s="33"/>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="31">
+        <v>26</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32">
+        <v>200</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="34">
         <v>27</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35">
-        <v>200</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="28">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
+        <v>200</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="28">
         <v>28</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29">
-        <v>200</v>
-      </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="31">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29">
+        <v>200</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="30"/>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="31">
         <v>29</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B34" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32">
-        <v>200</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="33"/>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="31">
-        <v>30</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
@@ -2202,20 +2531,24 @@
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
-      <c r="P34" s="33"/>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="P34" s="32"/>
+      <c r="Q34" s="33"/>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
@@ -2231,20 +2564,24 @@
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
-      <c r="P35" s="33"/>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="P35" s="32"/>
+      <c r="Q35" s="33"/>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
@@ -2260,20 +2597,24 @@
       <c r="M36" s="32"/>
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
-      <c r="P36" s="33"/>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="P36" s="32"/>
+      <c r="Q36" s="33"/>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
@@ -2289,20 +2630,24 @@
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
       <c r="O37" s="32"/>
-      <c r="P37" s="33"/>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="P37" s="32"/>
+      <c r="Q37" s="33"/>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -2318,20 +2663,24 @@
       <c r="M38" s="32"/>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
-      <c r="P38" s="33"/>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="P38" s="32"/>
+      <c r="Q38" s="33"/>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="31">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -2347,20 +2696,24 @@
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
-      <c r="P39" s="33"/>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="P39" s="32"/>
+      <c r="Q39" s="33"/>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="31">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
@@ -2376,20 +2729,24 @@
       <c r="M40" s="32"/>
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
-      <c r="P40" s="33"/>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="P40" s="32"/>
+      <c r="Q40" s="33"/>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="31">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
@@ -2405,20 +2762,24 @@
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
       <c r="O41" s="32"/>
-      <c r="P41" s="33"/>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="P41" s="32"/>
+      <c r="Q41" s="33"/>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="31">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -2434,22 +2795,24 @@
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
-      <c r="P42" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="P42" s="32"/>
+      <c r="Q42" s="33"/>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="31">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -2465,20 +2828,26 @@
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
-      <c r="P43" s="33"/>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="P43" s="32"/>
+      <c r="Q43" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="31">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -2494,20 +2863,24 @@
       <c r="M44" s="32"/>
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
-      <c r="P44" s="33"/>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="P44" s="32"/>
+      <c r="Q44" s="33"/>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2523,20 +2896,24 @@
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
-      <c r="P45" s="33"/>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="P45" s="32"/>
+      <c r="Q45" s="33"/>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="31">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
@@ -2552,20 +2929,24 @@
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
-      <c r="P46" s="33"/>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="P46" s="32"/>
+      <c r="Q46" s="33"/>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="31">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -2581,20 +2962,24 @@
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="P47" s="32"/>
+      <c r="Q47" s="33"/>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="31">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -2610,22 +2995,24 @@
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
-      <c r="P48" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="P48" s="32"/>
+      <c r="Q48" s="33"/>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="31">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
@@ -2641,22 +3028,26 @@
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
-      <c r="P49" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="P49" s="32"/>
+      <c r="Q49" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="31">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -2672,20 +3063,26 @@
       <c r="M50" s="32"/>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="P50" s="32"/>
+      <c r="Q50" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -2701,20 +3098,24 @@
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="P51" s="32"/>
+      <c r="Q51" s="33"/>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="31">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -2730,22 +3131,24 @@
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
-      <c r="P52" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="P52" s="32"/>
+      <c r="Q52" s="33"/>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="31">
+        <v>48</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -2761,22 +3164,26 @@
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
-      <c r="P53" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="P53" s="32"/>
+      <c r="Q53" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="31">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -2792,20 +3199,26 @@
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
-      <c r="P54" s="33"/>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="P54" s="32"/>
+      <c r="Q54" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -2821,20 +3234,24 @@
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
       <c r="O55" s="32"/>
-      <c r="P55" s="33"/>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="P55" s="32"/>
+      <c r="Q55" s="33"/>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="31">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
@@ -2850,20 +3267,24 @@
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
-      <c r="P56" s="33"/>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="P56" s="32"/>
+      <c r="Q56" s="33"/>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="31">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
@@ -2879,208 +3300,345 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
-      <c r="P57" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="34">
+      <c r="P57" s="32"/>
+      <c r="Q57" s="33"/>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" s="31">
+        <v>53</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32">
+        <v>200</v>
+      </c>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" s="34">
         <v>54</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B59" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35">
-        <v>200</v>
-      </c>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="28">
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35">
+        <v>200</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" s="28">
         <v>55</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29">
-        <v>200</v>
-      </c>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="31">
+      <c r="D60" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="E60" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="F60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="29">
+        <v>200</v>
+      </c>
+      <c r="H60" s="29">
+        <v>70</v>
+      </c>
+      <c r="I60" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J60" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="K60" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" s="37">
+        <v>40</v>
+      </c>
+      <c r="M60" s="38">
+        <v>1</v>
+      </c>
+      <c r="N60" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O60" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P60" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q60" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="T60" t="s">
+        <v>203</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" s="31">
         <v>56</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32">
-        <v>200</v>
-      </c>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="31">
+      <c r="D61" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E61" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="F61" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="32">
+        <v>200</v>
+      </c>
+      <c r="H61" s="37">
+        <v>70</v>
+      </c>
+      <c r="I61" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J61" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="K61" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" s="37">
+        <v>40</v>
+      </c>
+      <c r="M61" s="39">
+        <v>1</v>
+      </c>
+      <c r="N61" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O61" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P61" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q61" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" s="31">
         <v>57</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32">
-        <v>200</v>
-      </c>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="31">
+      <c r="D62" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="E62" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="F62" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="32">
+        <v>200</v>
+      </c>
+      <c r="H62" s="32">
+        <v>70</v>
+      </c>
+      <c r="I62" s="32">
+        <v>0.4</v>
+      </c>
+      <c r="J62" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="K62" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="37">
+        <v>40</v>
+      </c>
+      <c r="M62" s="39">
+        <v>1</v>
+      </c>
+      <c r="N62" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O62" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P62" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q62" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="S62" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" s="31">
         <v>58</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32">
-        <v>200</v>
-      </c>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="31">
+      <c r="D63" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="E63" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="32">
+        <v>200</v>
+      </c>
+      <c r="H63" s="37">
+        <v>70</v>
+      </c>
+      <c r="I63" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="J63" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="K63" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" s="37">
+        <v>40</v>
+      </c>
+      <c r="M63" s="39">
+        <v>1</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O63" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="P63" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q63" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" s="31">
         <v>59</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32">
-        <v>200</v>
-      </c>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="31">
-        <v>60</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
@@ -3096,22 +3654,32 @@
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="P64" s="32"/>
+      <c r="Q64" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="T64" t="s">
+        <v>208</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="31">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
@@ -3127,22 +3695,29 @@
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="P65" s="32"/>
+      <c r="Q65" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="31">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
@@ -3158,22 +3733,29 @@
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="P66" s="32"/>
+      <c r="Q66" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="31">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
@@ -3189,22 +3771,29 @@
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="P67" s="32"/>
+      <c r="Q67" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="31">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
@@ -3220,22 +3809,26 @@
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="P68" s="32"/>
+      <c r="Q68" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="31">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
@@ -3251,22 +3844,26 @@
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="P69" s="32"/>
+      <c r="Q69" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="31">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
@@ -3282,115 +3879,134 @@
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
-      <c r="P70" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="34">
+      <c r="P70" s="32"/>
+      <c r="Q70" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="31">
+        <v>66</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32">
+        <v>200</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="34">
         <v>67</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35">
-        <v>200</v>
-      </c>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="28">
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35">
+        <v>200</v>
+      </c>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="28">
         <v>68</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B73" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="29">
-        <v>200</v>
-      </c>
-      <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="31">
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29">
+        <v>200</v>
+      </c>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="29"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="W73" t="s">
+        <v>173</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="31">
         <v>69</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B74" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32">
-        <v>200</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="31">
-        <v>70</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>144</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
@@ -3406,22 +4022,29 @@
       <c r="M74" s="32"/>
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
-      <c r="P74" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="P74" s="32"/>
+      <c r="Q74" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>173</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="31">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
@@ -3437,22 +4060,29 @@
       <c r="M75" s="32"/>
       <c r="N75" s="32"/>
       <c r="O75" s="32"/>
-      <c r="P75" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="P75" s="32"/>
+      <c r="Q75" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="W75" t="s">
+        <v>173</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="31">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
@@ -3468,22 +4098,29 @@
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
       <c r="O76" s="32"/>
-      <c r="P76" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="P76" s="32"/>
+      <c r="Q76" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
+        <v>173</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="31">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
@@ -3499,49 +4136,49 @@
       <c r="M77" s="32"/>
       <c r="N77" s="32"/>
       <c r="O77" s="32"/>
-      <c r="P77" s="33"/>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="P77" s="32"/>
+      <c r="Q77" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="31">
+        <v>73</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="37">
+        <v>200</v>
+      </c>
+      <c r="Q78" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" s="31">
         <v>74</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B79" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>165</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32">
-        <v>200</v>
-      </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="33"/>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="31">
-        <v>75</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>169</v>
       </c>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
@@ -3557,20 +4194,24 @@
       <c r="M79" s="32"/>
       <c r="N79" s="32"/>
       <c r="O79" s="32"/>
-      <c r="P79" s="33"/>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="P79" s="32"/>
+      <c r="Q79" s="33"/>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="31">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
@@ -3586,22 +4227,24 @@
       <c r="M80" s="32"/>
       <c r="N80" s="32"/>
       <c r="O80" s="32"/>
-      <c r="P80" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="P80" s="32"/>
+      <c r="Q80" s="33"/>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="31">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
@@ -3617,22 +4260,24 @@
       <c r="M81" s="32"/>
       <c r="N81" s="32"/>
       <c r="O81" s="32"/>
-      <c r="P81" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="P81" s="32"/>
+      <c r="Q81" s="33"/>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="31">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
@@ -3648,22 +4293,26 @@
       <c r="M82" s="32"/>
       <c r="N82" s="32"/>
       <c r="O82" s="32"/>
-      <c r="P82" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="P82" s="32"/>
+      <c r="Q82" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="31">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
@@ -3679,22 +4328,26 @@
       <c r="M83" s="32"/>
       <c r="N83" s="32"/>
       <c r="O83" s="32"/>
-      <c r="P83" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="P83" s="32"/>
+      <c r="Q83" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="31">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
@@ -3710,39 +4363,61 @@
       <c r="M84" s="32"/>
       <c r="N84" s="32"/>
       <c r="O84" s="32"/>
-      <c r="P84" s="33" t="s">
+      <c r="P84" s="32"/>
+      <c r="Q84" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="31">
+        <v>80</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32">
+        <v>200</v>
+      </c>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="31">
+        <v>81</v>
+      </c>
+      <c r="B86" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="31">
-        <v>81</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="32">
-        <v>200</v>
-      </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="31">
-        <v>82</v>
-      </c>
-      <c r="B86" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="C86" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
@@ -3758,20 +4433,26 @@
       <c r="M86" s="32"/>
       <c r="N86" s="32"/>
       <c r="O86" s="32"/>
-      <c r="P86" s="33"/>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="P86" s="32"/>
+      <c r="Q86" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="31">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D87" s="32"/>
       <c r="E87" s="32"/>
@@ -3787,49 +4468,136 @@
       <c r="M87" s="32"/>
       <c r="N87" s="32"/>
       <c r="O87" s="32"/>
-      <c r="P87" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="P87" s="32"/>
+      <c r="Q87" s="33"/>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="31">
+        <v>83</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32">
+        <v>200</v>
+      </c>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32"/>
+      <c r="Q88" s="33"/>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="31">
         <v>84</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B89" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32">
+        <v>200</v>
+      </c>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="B90" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C90" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35">
-        <v>200</v>
-      </c>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="36"/>
-    </row>
-    <row r="94" spans="1:18">
-      <c r="P94">
-        <f>(SUMIF(P5:P88,"Y",Q5:Q88)/84)*100</f>
-        <v>64.285714285714292</v>
-      </c>
-      <c r="R94" t="s">
-        <v>176</v>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35">
+        <v>200</v>
+      </c>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="Q95" s="41">
+        <f ca="1">(SUMIF(Q6:Q90,"Y",R6:R89)/84)*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="S95" t="s">
+        <v>174</v>
+      </c>
+      <c r="W95" s="41">
+        <f>(SUMIF(W6:W89,"Y",X6:X89)/84)*100</f>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3842,7 +4610,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3854,7 +4622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
